--- a/ieasyreports/reports/basic_report.xlsx
+++ b/ieasyreports/reports/basic_report.xlsx
@@ -17,9 +17,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -40,14 +41,45 @@
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <b val="1"/>
       <sz val="15"/>
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
+      <b val="1"/>
       <sz val="13"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <i val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
@@ -77,7 +109,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -86,13 +118,49 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -463,38 +531,408 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <cols>
+    <col width="17.36" customWidth="1" style="9" min="1" max="1"/>
+    <col width="15.68" customWidth="1" style="9" min="2" max="2"/>
+    <col width="16.26" customWidth="1" style="9" min="3" max="3"/>
+    <col width="15.42" customWidth="1" style="9" min="4" max="4"/>
+    <col width="11.25" customWidth="1" style="9" min="5" max="6"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="18.55" customHeight="1" s="3">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>{{Report title}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="16.15" customHeight="1" s="3">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t>By: {{Author Name}}</t>
-        </is>
-      </c>
-      <c r="C2" s="5" t="inlineStr">
-        <is>
-          <t>Date: {{June 30, 2023}}</t>
+    <row r="1" ht="18.55" customHeight="1" s="10">
+      <c r="A1" s="11" t="inlineStr">
+        <is>
+          <t>Test report title</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="16.15" customFormat="1" customHeight="1" s="12">
+      <c r="A2" s="13" t="inlineStr">
+        <is>
+          <t>Date: July 18, 2023</t>
+        </is>
+      </c>
+      <c r="C2" s="13" t="n"/>
+    </row>
+    <row r="3"/>
+    <row r="4" ht="12.8" customHeight="1" s="10">
+      <c r="A4" s="14" t="inlineStr">
+        <is>
+          <t>This is a hardcoded cell value.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="12.8" customHeight="1" s="10">
+      <c r="A5" s="9" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="B5" s="9" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="C5" s="9" t="inlineStr">
+        <is>
+          <t>per</t>
+        </is>
+      </c>
+      <c r="D5" s="9" t="inlineStr">
+        <is>
+          <t>cell.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7" ht="17.35" customHeight="1" s="10">
+      <c r="A7" s="15" t="inlineStr">
+        <is>
+          <t>Basin: Bosut</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="12.8" customFormat="1" customHeight="1" s="9">
+      <c r="A8" s="16" t="inlineStr">
+        <is>
+          <t>Vinkovci</t>
+        </is>
+      </c>
+      <c r="B8" s="17" t="inlineStr"/>
+      <c r="C8" s="17" t="inlineStr"/>
+      <c r="D8" s="17" t="inlineStr"/>
+      <c r="E8" s="17" t="inlineStr"/>
+    </row>
+    <row r="9" ht="12.8" customHeight="1" s="10">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>{{DATA.SITE_NAME}}</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>{{DATA.WATER_LEVEL_MORNING}}</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>{{DATA.DISCHARGE_MORNING}}</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>{{DATA.WATER_LEVEL_EVENING}}</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>{{DATA.DISCHARGE_EVENING}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="15" t="inlineStr">
+        <is>
+          <t>Basin: Drava</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="10">
+      <c r="A11" s="16" t="inlineStr">
+        <is>
+          <t>Donji Miholjac</t>
+        </is>
+      </c>
+      <c r="B11" s="17" t="inlineStr"/>
+      <c r="C11" s="17" t="inlineStr"/>
+      <c r="D11" s="17" t="inlineStr"/>
+      <c r="E11" s="17" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="16" t="inlineStr">
+        <is>
+          <t>Osijek Donji Grad</t>
+        </is>
+      </c>
+      <c r="B12" s="17" t="inlineStr">
+        <is>
+          <t>630.8</t>
+        </is>
+      </c>
+      <c r="C12" s="17" t="inlineStr">
+        <is>
+          <t>630.8</t>
+        </is>
+      </c>
+      <c r="D12" s="17" t="inlineStr">
+        <is>
+          <t>630.8</t>
+        </is>
+      </c>
+      <c r="E12" s="17" t="inlineStr">
+        <is>
+          <t>630.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>{{DATA.SITE_NAME}}</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>{{DATA.WATER_LEVEL_MORNING}}</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>{{DATA.DISCHARGE_MORNING}}</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>{{DATA.WATER_LEVEL_EVENING}}</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>{{DATA.DISCHARGE_EVENING}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="15" t="inlineStr">
+        <is>
+          <t>Basin: Dunav</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="16" t="inlineStr">
+        <is>
+          <t>Borovo</t>
+        </is>
+      </c>
+      <c r="B15" s="17" t="inlineStr"/>
+      <c r="C15" s="17" t="inlineStr"/>
+      <c r="D15" s="17" t="inlineStr"/>
+      <c r="E15" s="17" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="16" t="inlineStr">
+        <is>
+          <t>Vukovar Luka</t>
+        </is>
+      </c>
+      <c r="B16" s="17" t="inlineStr"/>
+      <c r="C16" s="17" t="inlineStr"/>
+      <c r="D16" s="17" t="inlineStr"/>
+      <c r="E16" s="17" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>{{DATA.SITE_NAME}}</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>{{DATA.WATER_LEVEL_MORNING}}</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>{{DATA.DISCHARGE_MORNING}}</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>{{DATA.WATER_LEVEL_EVENING}}</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>{{DATA.DISCHARGE_EVENING}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="15" t="inlineStr">
+        <is>
+          <t>Basin: Sava</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="16" t="inlineStr">
+        <is>
+          <t>Rugvica</t>
+        </is>
+      </c>
+      <c r="B19" s="17" t="inlineStr"/>
+      <c r="C19" s="17" t="inlineStr"/>
+      <c r="D19" s="17" t="inlineStr"/>
+      <c r="E19" s="17" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="16" t="inlineStr">
+        <is>
+          <t>Slavonski Brod</t>
+        </is>
+      </c>
+      <c r="B20" s="17" t="inlineStr">
+        <is>
+          <t>529.8</t>
+        </is>
+      </c>
+      <c r="C20" s="17" t="inlineStr">
+        <is>
+          <t>529.8</t>
+        </is>
+      </c>
+      <c r="D20" s="17" t="inlineStr">
+        <is>
+          <t>529.8</t>
+        </is>
+      </c>
+      <c r="E20" s="17" t="inlineStr">
+        <is>
+          <t>529.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="16" t="inlineStr">
+        <is>
+          <t>Zagreb Domovinski most</t>
+        </is>
+      </c>
+      <c r="B21" s="17" t="inlineStr">
+        <is>
+          <t>548.6</t>
+        </is>
+      </c>
+      <c r="C21" s="17" t="inlineStr">
+        <is>
+          <t>548.6</t>
+        </is>
+      </c>
+      <c r="D21" s="17" t="inlineStr">
+        <is>
+          <t>548.6</t>
+        </is>
+      </c>
+      <c r="E21" s="17" t="inlineStr">
+        <is>
+          <t>548.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="16" t="inlineStr">
+        <is>
+          <t>Zagreb Jadranski most</t>
+        </is>
+      </c>
+      <c r="B22" s="17" t="inlineStr">
+        <is>
+          <t>529.8</t>
+        </is>
+      </c>
+      <c r="C22" s="17" t="inlineStr">
+        <is>
+          <t>529.8</t>
+        </is>
+      </c>
+      <c r="D22" s="17" t="inlineStr">
+        <is>
+          <t>529.8</t>
+        </is>
+      </c>
+      <c r="E22" s="17" t="inlineStr">
+        <is>
+          <t>529.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>{{DATA.SITE_NAME}}</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>{{DATA.WATER_LEVEL_MORNING}}</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>{{DATA.DISCHARGE_MORNING}}</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>{{DATA.WATER_LEVEL_EVENING}}</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>{{DATA.DISCHARGE_EVENING}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="12" t="inlineStr">
+        <is>
+          <t>{{DATA.SITE_NAME}}</t>
+        </is>
+      </c>
+      <c r="B24" s="18" t="inlineStr">
+        <is>
+          <t>{{DATA.WATER_LEVEL_MORNING}}</t>
+        </is>
+      </c>
+      <c r="C24" s="18" t="inlineStr">
+        <is>
+          <t>{{DATA.DISCHARGE_MORNING}}</t>
+        </is>
+      </c>
+      <c r="D24" s="18" t="inlineStr">
+        <is>
+          <t>{{DATA.WATER_LEVEL_EVENING}}</t>
+        </is>
+      </c>
+      <c r="E24" s="18" t="inlineStr">
+        <is>
+          <t>{{DATA.DISCHARGE_EVENING}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="25"/>
+    <row r="26">
+      <c r="A26" s="19" t="inlineStr">
+        <is>
+          <t>Report generated by: John Doe on July 18, 2023</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A7:E7"/>
   </mergeCells>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
